--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="912">
   <si>
     <t>type说明</t>
   </si>
@@ -2536,6 +2536,84 @@
     <t>0删除 1识别失败 2python识别 3制单中(填制100%) 4待审核 5已审核 6已驳回 7已申报 8已暂存(失败) 9已暂存(成功) 10已回执</t>
   </si>
   <si>
+    <t>核注回执</t>
+  </si>
+  <si>
+    <t>&lt;bondInvtNo&gt;QD802220E000000453&lt;/bondInvtNo&gt;</t>
+  </si>
+  <si>
+    <t>清单编号</t>
+  </si>
+  <si>
+    <t>&lt;invtPreentNo&gt;&lt;/invtPreentNo&gt;</t>
+  </si>
+  <si>
+    <t>统一编号</t>
+  </si>
+  <si>
+    <t>DclcusFlag</t>
+  </si>
+  <si>
+    <t>是否报关</t>
+  </si>
+  <si>
+    <t>MtpckEndprdMarkcd</t>
+  </si>
+  <si>
+    <t>料件成品</t>
+  </si>
+  <si>
+    <t>ImpexpMarkcd</t>
+  </si>
+  <si>
+    <t>进出口</t>
+  </si>
+  <si>
+    <t>InvtDclTime</t>
+  </si>
+  <si>
+    <t>清单申报日期</t>
+  </si>
+  <si>
+    <t>EntryDclTime</t>
+  </si>
+  <si>
+    <t>报关单申报日期</t>
+  </si>
+  <si>
+    <t>EntryNo</t>
+  </si>
+  <si>
+    <t>对应报关单编号</t>
+  </si>
+  <si>
+    <t>RltEntryNo</t>
+  </si>
+  <si>
+    <t>RltInvtNo</t>
+  </si>
+  <si>
+    <t>RltPutrecNo</t>
+  </si>
+  <si>
+    <t>关联备案编号</t>
+  </si>
+  <si>
+    <t>VrfdedMarkcd</t>
+  </si>
+  <si>
+    <t>InvtIochkptStucd</t>
+  </si>
+  <si>
+    <t>清单进出口关卡状态</t>
+  </si>
+  <si>
+    <t>ApplyNo</t>
+  </si>
+  <si>
+    <t>ListType</t>
+  </si>
+  <si>
     <t>APPLICATION_FEATURE</t>
   </si>
   <si>
@@ -2636,12 +2714,6 @@
   </si>
   <si>
     <t>进口+出口-</t>
-  </si>
-  <si>
-    <t>料件成品</t>
-  </si>
-  <si>
-    <t>进出口</t>
   </si>
   <si>
     <t>账册增减变化</t>
@@ -2721,19 +2793,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2777,8 +2855,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2792,51 +2945,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2844,17 +2963,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2866,38 +2985,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2905,17 +2992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2942,6 +3020,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2954,49 +3176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3008,115 +3188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3185,30 +3263,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3226,32 +3280,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3281,6 +3311,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3289,10 +3367,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3301,16 +3379,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3319,119 +3397,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3456,27 +3534,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3964,87 +4045,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" ht="15.6" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" ht="15.6" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="15.6" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4053,7 +4134,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4062,7 +4143,7 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4071,7 +4152,7 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4080,46 +4161,46 @@
       <c r="C13" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4162,106 +4243,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4275,13 +4356,13 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -4340,13 +4421,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -4405,13 +4486,13 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
@@ -4470,13 +4551,13 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -4535,13 +4616,13 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -5243,13 +5324,13 @@
       <c r="S19" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="Y19" t="s">
@@ -5299,13 +5380,13 @@
       <c r="S20" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="Y20" t="s">
@@ -5355,13 +5436,13 @@
       <c r="S21" t="s">
         <v>56</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="Y21" t="s">
@@ -5384,49 +5465,49 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="10" t="s">
+      <c r="Y22" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="Z22" s="10" t="s">
+      <c r="Z22" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AA22" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5440,49 +5521,49 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="10" t="s">
+      <c r="Y23" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="Z23" s="10" t="s">
+      <c r="Z23" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="AA23" s="10" t="s">
+      <c r="AA23" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5496,40 +5577,40 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y24" s="10" t="s">
+      <c r="Y24" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="Z24" s="10" t="s">
+      <c r="Z24" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="AA24" s="10" t="s">
+      <c r="AA24" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5543,40 +5624,40 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="10" t="s">
+      <c r="Y25" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="Z25" s="10" t="s">
+      <c r="Z25" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="AA25" s="10" t="s">
+      <c r="AA25" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5590,40 +5671,40 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y26" s="10" t="s">
+      <c r="Y26" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Z26" s="10" t="s">
+      <c r="Z26" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AA26" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6167,13 +6248,13 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6189,13 +6270,13 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6636,9 +6717,9 @@
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6659,104 +6740,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6770,13 +6851,13 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -6835,13 +6916,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -6900,13 +6981,13 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
@@ -6965,13 +7046,13 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -7030,13 +7111,13 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -8144,49 +8225,49 @@
       <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="W24" s="10" t="s">
+      <c r="W24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y24" s="10" t="s">
+      <c r="Y24" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="Z24" s="10" t="s">
+      <c r="Z24" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="10" t="s">
+      <c r="AA24" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8209,49 +8290,49 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y25" s="10" t="s">
+      <c r="Y25" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="Z25" s="10" t="s">
+      <c r="Z25" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="AA25" s="10" t="s">
+      <c r="AA25" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8274,49 +8355,49 @@
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U26" s="10" t="s">
+      <c r="U26" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="V26" s="10" t="s">
+      <c r="V26" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y26" s="10" t="s">
+      <c r="Y26" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="Z26" s="10" t="s">
+      <c r="Z26" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AA26" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8339,49 +8420,49 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="Q27" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U27" s="10" t="s">
+      <c r="U27" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="V27" s="10" t="s">
+      <c r="V27" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="W27" s="10" t="s">
+      <c r="W27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y27" s="10" t="s">
+      <c r="Y27" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="Z27" s="10" t="s">
+      <c r="Z27" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="AA27" s="10" t="s">
+      <c r="AA27" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8404,49 +8485,49 @@
       <c r="G28" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="U28" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="V28" s="10" t="s">
+      <c r="V28" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y28" s="10" t="s">
+      <c r="Y28" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Z28" s="10" t="s">
+      <c r="Z28" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AA28" s="10" t="s">
+      <c r="AA28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8480,13 +8561,13 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8844,18 +8925,18 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>557</v>
       </c>
       <c r="B63" t="s">
@@ -9112,15 +9193,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="44.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="41.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="29.5555555555556" customWidth="1"/>
@@ -9518,6 +9599,131 @@
         <v>827</v>
       </c>
       <c r="F61" s="7"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>829</v>
+      </c>
+      <c r="B66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>831</v>
+      </c>
+      <c r="B67" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>833</v>
+      </c>
+      <c r="B68" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>835</v>
+      </c>
+      <c r="B69" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>837</v>
+      </c>
+      <c r="B70" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>839</v>
+      </c>
+      <c r="B71" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B72" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>843</v>
+      </c>
+      <c r="B73" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>845</v>
+      </c>
+      <c r="B74" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>846</v>
+      </c>
+      <c r="B75" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B76" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>849</v>
+      </c>
+      <c r="B77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>850</v>
+      </c>
+      <c r="B78" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>852</v>
+      </c>
+      <c r="B79" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>853</v>
+      </c>
+      <c r="B80" t="s">
+        <v>635</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9542,148 +9748,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="B7" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="B11" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="B14" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="B15" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="B17" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="B18" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="B21" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="B22" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="B23" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -9711,7 +9917,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9721,182 +9927,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="G4" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="922">
   <si>
     <t>type说明</t>
   </si>
@@ -2266,6 +2266,12 @@
     <t>表体</t>
   </si>
   <si>
+    <t>dec_receipt_info</t>
+  </si>
+  <si>
+    <t>报关单回执</t>
+  </si>
+  <si>
     <t>核注</t>
   </si>
   <si>
@@ -2275,34 +2281,34 @@
     <t>核注清单表头（特殊/保税）</t>
   </si>
   <si>
+    <t>sas_invt_list_type</t>
+  </si>
+  <si>
+    <t>核注清单表体（特殊/保税）</t>
+  </si>
+  <si>
     <t>ems_invt_head_type</t>
   </si>
   <si>
-    <t>核注清单表头帐册</t>
+    <t>核注清单表头（加工帐册</t>
+  </si>
+  <si>
+    <t>ems_invt_list_type</t>
+  </si>
+  <si>
+    <t>核注清单表体（加工帐册</t>
   </si>
   <si>
     <t>eml_invt_head_type</t>
   </si>
   <si>
-    <t>核注清单表头手册</t>
-  </si>
-  <si>
-    <t>sas_invt_list_type</t>
-  </si>
-  <si>
-    <t>核注清单表体（特殊/保税）</t>
-  </si>
-  <si>
-    <t>ems_invt_list_type</t>
-  </si>
-  <si>
-    <t>核注清单表体帐册</t>
+    <t>核注清单表头（加工手册</t>
   </si>
   <si>
     <t>eml_invt_list_type</t>
   </si>
   <si>
-    <t>核注清单表体手册</t>
+    <t>核注清单表体（加工手册</t>
   </si>
   <si>
     <t>invt_make_manage</t>
@@ -2317,6 +2323,12 @@
     <t>草稿（所有）</t>
   </si>
   <si>
+    <t>invt_response_message</t>
+  </si>
+  <si>
+    <t>核注清单回执</t>
+  </si>
+  <si>
     <t>平账</t>
   </si>
   <si>
@@ -2501,6 +2513,24 @@
   </si>
   <si>
     <t>设置组织</t>
+  </si>
+  <si>
+    <t>核放</t>
+  </si>
+  <si>
+    <t>nrc_pass_port_head</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>nrc_pass_port_list</t>
+  </si>
+  <si>
+    <t>sas_check_info</t>
+  </si>
+  <si>
+    <t>核放单位回执</t>
   </si>
   <si>
     <t xml:space="preserve"> /**
@@ -2793,11 +2823,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2855,11 +2885,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2879,52 +2938,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2939,15 +2954,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2963,22 +3001,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2986,7 +3016,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3020,49 +3050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,13 +3086,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,31 +3188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,7 +3200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,49 +3218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3262,6 +3292,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3281,17 +3337,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3321,6 +3366,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3335,30 +3389,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3367,10 +3397,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3379,133 +3409,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8987,7 +9017,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -9193,10 +9223,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9259,16 +9289,16 @@
         <v>746</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B7" t="s">
         <v>749</v>
       </c>
     </row>
@@ -9280,7 +9310,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="1" spans="1:2">
       <c r="A9" t="s">
         <v>752</v>
       </c>
@@ -9320,142 +9350,137 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>762</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>764</v>
+      </c>
+      <c r="B16" t="s">
         <v>765</v>
-      </c>
-      <c r="B16" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17" t="s">
         <v>767</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>769</v>
-      </c>
-      <c r="B18" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B22" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>787</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>789</v>
+      </c>
+      <c r="B29" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B30" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>791</v>
-      </c>
-      <c r="B31" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" t="s">
         <v>794</v>
-      </c>
-      <c r="B33" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9466,86 +9491,86 @@
         <v>796</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>797</v>
       </c>
-      <c r="B35" t="s">
-        <v>798</v>
-      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B36" t="s">
-        <v>800</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>801</v>
+      </c>
+      <c r="B38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>803</v>
       </c>
-      <c r="B38" t="s">
-        <v>354</v>
+      <c r="B39" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B40" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B41" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>808</v>
-      </c>
-      <c r="B42" t="s">
-        <v>809</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B43" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>810</v>
+      </c>
+      <c r="B44" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>812</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B46" t="s">
         <v>815</v>
@@ -9559,169 +9584,219 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>818</v>
       </c>
-      <c r="B48" t="s">
-        <v>819</v>
-      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>822</v>
+      </c>
+      <c r="B51" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>824</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="61" ht="292" customHeight="1" spans="1:6">
-      <c r="A61" s="7" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>826</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B53" t="s">
         <v>827</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B54" t="s">
         <v>829</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>831</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B57" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>833</v>
+      </c>
+      <c r="B58" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>834</v>
+      </c>
+      <c r="B59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="64" ht="292" customHeight="1" spans="1:6">
+      <c r="A64" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B64" t="s">
+        <v>837</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>833</v>
-      </c>
-      <c r="B68" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B69" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B70" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B71" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8" t="s">
-        <v>841</v>
+      <c r="A72" t="s">
+        <v>845</v>
       </c>
       <c r="B72" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B73" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B74" t="s">
-        <v>658</v>
+        <v>850</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>846</v>
+      <c r="A75" s="8" t="s">
+        <v>851</v>
       </c>
       <c r="B75" t="s">
-        <v>654</v>
+        <v>852</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="8" t="s">
-        <v>847</v>
+      <c r="A76" t="s">
+        <v>853</v>
       </c>
       <c r="B76" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B77" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B78" t="s">
-        <v>851</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>852</v>
+      <c r="A79" s="8" t="s">
+        <v>857</v>
       </c>
       <c r="B79" t="s">
-        <v>632</v>
+        <v>858</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B80" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>860</v>
+      </c>
+      <c r="B81" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>862</v>
+      </c>
+      <c r="B82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>863</v>
+      </c>
+      <c r="B83" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9748,148 +9823,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="B6" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="B7" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="B8" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="B11" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="B14" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B15" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B17" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B18" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B21" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="B22" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="B23" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -9917,7 +9992,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9927,182 +10002,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="G4" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="942">
   <si>
     <t>type说明</t>
   </si>
@@ -2482,7 +2482,7 @@
     <t>x3</t>
   </si>
   <si>
-    <t>基础信息表</t>
+    <t>账号报关行关系（非X3）</t>
   </si>
   <si>
     <t>sys_role</t>
@@ -2500,7 +2500,7 @@
     <t>application_menu_scope</t>
   </si>
   <si>
-    <t>模板配置</t>
+    <t>菜单权限</t>
   </si>
   <si>
     <t>application_feature_scope</t>
@@ -2513,6 +2513,66 @@
   </si>
   <si>
     <t>设置组织</t>
+  </si>
+  <si>
+    <t>sys_organization_unit</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>应用表</t>
+  </si>
+  <si>
+    <t>application_menu</t>
+  </si>
+  <si>
+    <t>菜单表</t>
+  </si>
+  <si>
+    <t>application_feature</t>
+  </si>
+  <si>
+    <t>按钮表</t>
+  </si>
+  <si>
+    <t>转关单</t>
+  </si>
+  <si>
+    <t>trn_make_manage</t>
+  </si>
+  <si>
+    <t>转关单识别表头列表</t>
+  </si>
+  <si>
+    <t>trn_head</t>
+  </si>
+  <si>
+    <t>转关单表头</t>
+  </si>
+  <si>
+    <t>trn_goods</t>
+  </si>
+  <si>
+    <t>转关商品信息(表体)</t>
+  </si>
+  <si>
+    <t>trn_container</t>
+  </si>
+  <si>
+    <t>转关单集装箱</t>
+  </si>
+  <si>
+    <t>trn_conta_goods</t>
+  </si>
+  <si>
+    <t>转关单集装箱商品关联信息</t>
+  </si>
+  <si>
+    <t>trn_bill_lists</t>
+  </si>
+  <si>
+    <t>转关单提单信息</t>
   </si>
   <si>
     <t>核放</t>
@@ -2823,11 +2883,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2892,14 +2952,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2907,9 +2959,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2922,24 +2981,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2968,32 +3042,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3001,7 +3051,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3012,20 +3086,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3050,7 +3110,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,19 +3212,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,43 +3242,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3134,97 +3278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3292,6 +3352,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3318,50 +3432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3374,21 +3449,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3397,10 +3457,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3409,133 +3469,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9223,10 +9283,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9491,312 +9551,397 @@
         <v>796</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>798</v>
-      </c>
-      <c r="B36" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B37" t="s">
-        <v>800</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B38" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>805</v>
+      </c>
+      <c r="B41" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>807</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>808</v>
-      </c>
-      <c r="B43" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B45" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B46" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>814</v>
+      </c>
+      <c r="B47" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>816</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>812</v>
-      </c>
-      <c r="B49" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>820</v>
-      </c>
-      <c r="B50" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B51" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B52" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B53" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>824</v>
+      </c>
+      <c r="B54" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>826</v>
+      </c>
+      <c r="B55" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>828</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B57" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B58" t="s">
-        <v>746</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>833</v>
+      </c>
+      <c r="B59" t="s">
         <v>834</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="64" ht="292" customHeight="1" spans="1:6">
-      <c r="A64" s="7" t="s">
+      <c r="B60" t="s">
         <v>836</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>837</v>
       </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="68" spans="1:1">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>838</v>
+      </c>
+      <c r="B65" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>840</v>
+      </c>
+      <c r="B66" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>842</v>
+      </c>
+      <c r="B67" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>838</v>
+        <v>844</v>
+      </c>
+      <c r="B68" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B69" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="B70" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>843</v>
-      </c>
-      <c r="B71" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>845</v>
-      </c>
-      <c r="B72" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B73" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B74" t="s">
-        <v>850</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8" t="s">
-        <v>851</v>
+      <c r="A75" t="s">
+        <v>854</v>
       </c>
       <c r="B75" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>853</v>
-      </c>
-      <c r="B76" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
         <v>855</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="80" ht="292" customHeight="1" spans="1:6">
+      <c r="A80" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B80" t="s">
+        <v>857</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>859</v>
+      </c>
+      <c r="B85" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>863</v>
+      </c>
+      <c r="B87" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>865</v>
+      </c>
+      <c r="B88" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>867</v>
+      </c>
+      <c r="B89" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>869</v>
+      </c>
+      <c r="B90" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="B91" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>873</v>
+      </c>
+      <c r="B92" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>875</v>
+      </c>
+      <c r="B93" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>856</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>876</v>
+      </c>
+      <c r="B94" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="B79" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>859</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B95" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>879</v>
+      </c>
+      <c r="B96" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>860</v>
-      </c>
-      <c r="B81" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>862</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>880</v>
+      </c>
+      <c r="B97" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>882</v>
+      </c>
+      <c r="B98" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>863</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>883</v>
+      </c>
+      <c r="B99" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9823,148 +9968,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="B7" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B8" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="B10" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B11" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="B14" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="B15" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="B17" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="B18" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="B21" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="B22" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="B23" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -9992,7 +10137,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10002,182 +10147,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="G4" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="20304" windowHeight="8675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="type说明" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="951">
   <si>
     <t>type说明</t>
   </si>
@@ -2311,6 +2311,12 @@
     <t>核注清单表体（加工手册</t>
   </si>
   <si>
+    <t>attachment_file_pkg</t>
+  </si>
+  <si>
+    <t>打印表</t>
+  </si>
+  <si>
     <t>invt_make_manage</t>
   </si>
   <si>
@@ -2518,6 +2524,9 @@
     <t>sys_organization_unit</t>
   </si>
   <si>
+    <t>报关行组织</t>
+  </si>
+  <si>
     <t>application</t>
   </si>
   <si>
@@ -2536,13 +2545,25 @@
     <t>按钮表</t>
   </si>
   <si>
+    <t>sys_digital_number</t>
+  </si>
+  <si>
+    <t>流水号生成表</t>
+  </si>
+  <si>
+    <t>sys_account</t>
+  </si>
+  <si>
+    <t>账号密码</t>
+  </si>
+  <si>
     <t>转关单</t>
   </si>
   <si>
     <t>trn_make_manage</t>
   </si>
   <si>
-    <t>转关单识别表头列表</t>
+    <t>转关单列表</t>
   </si>
   <si>
     <t>trn_head</t>
@@ -2573,6 +2594,12 @@
   </si>
   <si>
     <t>转关单提单信息</t>
+  </si>
+  <si>
+    <t>trn_template</t>
+  </si>
+  <si>
+    <t>转关单模板</t>
   </si>
   <si>
     <t>核放</t>
@@ -2883,11 +2910,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2946,110 +2973,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3066,10 +2995,92 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3082,10 +3093,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3110,7 +3137,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,13 +3233,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,31 +3269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,13 +3293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3194,97 +3305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,32 +3379,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3417,26 +3438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3449,6 +3461,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3457,10 +3484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3469,133 +3496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9283,10 +9310,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9418,530 +9445,562 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>764</v>
-      </c>
-      <c r="B16" t="s">
-        <v>765</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>764</v>
+      </c>
+      <c r="B17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>766</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19" t="s">
         <v>769</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>771</v>
-      </c>
-      <c r="B20" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B22" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>789</v>
+      </c>
+      <c r="B30" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>791</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>793</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B32" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>795</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B36" t="s">
         <v>798</v>
       </c>
-      <c r="B37" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>799</v>
       </c>
-      <c r="B38" t="s">
-        <v>800</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B39" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B40" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B41" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>807</v>
       </c>
-      <c r="B42" t="s">
-        <v>354</v>
+      <c r="B43" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B44" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>810</v>
-      </c>
-      <c r="B45" t="s">
-        <v>811</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B46" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B47" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>814</v>
+      </c>
+      <c r="B48" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>816</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>812</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B50" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>820</v>
       </c>
-      <c r="B52" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B53" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B54" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B55" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B56" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B57" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>830</v>
+      </c>
+      <c r="B58" t="s">
         <v>831</v>
-      </c>
-      <c r="B58" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>832</v>
+      </c>
+      <c r="B59" t="s">
         <v>833</v>
-      </c>
-      <c r="B59" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>834</v>
+      </c>
+      <c r="B60" t="s">
         <v>835</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B61" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>838</v>
+      </c>
+      <c r="B62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>840</v>
+      </c>
+      <c r="B63" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>838</v>
-      </c>
-      <c r="B65" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>842</v>
+      </c>
+      <c r="B64" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>840</v>
-      </c>
-      <c r="B66" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B67" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B68" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B69" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B70" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>853</v>
+      </c>
+      <c r="B71" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="B72" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B73" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>853</v>
-      </c>
-      <c r="B74" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>860</v>
+      </c>
+      <c r="B76" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>862</v>
+      </c>
+      <c r="B77" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>854</v>
-      </c>
-      <c r="B75" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="80" ht="292" customHeight="1" spans="1:6">
-      <c r="A80" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="B80" t="s">
-        <v>857</v>
-      </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>859</v>
-      </c>
-      <c r="B85" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>861</v>
-      </c>
-      <c r="B86" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>863</v>
+      </c>
+      <c r="B78" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="83" ht="292" customHeight="1" spans="1:6">
+      <c r="A83" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B83" t="s">
+        <v>866</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>863</v>
-      </c>
-      <c r="B87" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B88" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B89" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B90" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="8" t="s">
-        <v>871</v>
+      <c r="A91" t="s">
+        <v>874</v>
       </c>
       <c r="B91" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B92" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B93" t="s">
-        <v>658</v>
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>876</v>
+      <c r="A94" s="8" t="s">
+        <v>880</v>
       </c>
       <c r="B94" t="s">
-        <v>654</v>
+        <v>881</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
-        <v>877</v>
+      <c r="A95" t="s">
+        <v>882</v>
       </c>
       <c r="B95" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B96" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="B97" t="s">
-        <v>881</v>
+        <v>654</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>882</v>
+      <c r="A98" s="8" t="s">
+        <v>886</v>
       </c>
       <c r="B98" t="s">
-        <v>632</v>
+        <v>887</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B99" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>889</v>
+      </c>
+      <c r="B100" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>891</v>
+      </c>
+      <c r="B101" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>892</v>
+      </c>
+      <c r="B102" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9957,7 +10016,7 @@
   <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -9968,148 +10027,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="B7" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="B8" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B10" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="B11" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B14" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B15" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="B17" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="B18" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="B21" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="B22" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="B23" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -10137,7 +10196,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10147,182 +10206,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="G4" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20304" windowHeight="8675" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="type说明" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="955">
   <si>
     <t>type说明</t>
   </si>
@@ -2555,6 +2555,18 @@
   </si>
   <si>
     <t>账号密码</t>
+  </si>
+  <si>
+    <t>ocr_key_set_config</t>
+  </si>
+  <si>
+    <t>python配置</t>
+  </si>
+  <si>
+    <t>ocr_key_cols</t>
+  </si>
+  <si>
+    <t>python配置字段来源</t>
   </si>
   <si>
     <t>转关单</t>
@@ -2911,10 +2923,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2973,6 +2985,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2980,30 +3006,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,30 +3027,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3056,24 +3067,41 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3093,26 +3121,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3137,7 +3149,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,7 +3221,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,43 +3287,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,109 +3317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3379,26 +3391,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3418,11 +3415,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3433,6 +3445,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3453,25 +3474,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3484,10 +3496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3496,133 +3508,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9310,10 +9322,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9780,227 +9792,243 @@
         <v>843</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>844</v>
       </c>
+      <c r="B66" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B67" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
         <v>847</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>849</v>
-      </c>
-      <c r="B69" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>851</v>
-      </c>
-      <c r="B70" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>853</v>
-      </c>
-      <c r="B71" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B72" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B73" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>853</v>
+      </c>
+      <c r="B74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>859</v>
+        <v>855</v>
+      </c>
+      <c r="B75" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B76" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B77" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>863</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="83" ht="292" customHeight="1" spans="1:6">
-      <c r="A83" s="7" t="s">
+      <c r="B81" t="s">
         <v>865</v>
       </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>866</v>
+      </c>
+      <c r="B82" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>867</v>
+      </c>
       <c r="B83" t="s">
-        <v>866</v>
-      </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
         <v>868</v>
       </c>
+    </row>
+    <row r="88" ht="292" customHeight="1" spans="1:6">
+      <c r="A88" s="7" t="s">
+        <v>869</v>
+      </c>
       <c r="B88" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
         <v>870</v>
       </c>
-      <c r="B89" t="s">
+      <c r="F88" s="7"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
         <v>871</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>872</v>
-      </c>
-      <c r="B90" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>874</v>
-      </c>
-      <c r="B91" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>876</v>
-      </c>
-      <c r="B92" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B93" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="8" t="s">
-        <v>880</v>
+      <c r="A94" t="s">
+        <v>874</v>
       </c>
       <c r="B94" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B95" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B96" t="s">
-        <v>658</v>
+        <v>879</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>880</v>
+      </c>
+      <c r="B97" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>882</v>
+      </c>
+      <c r="B98" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B99" t="s">
         <v>885</v>
-      </c>
-      <c r="B97" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="B98" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>888</v>
-      </c>
-      <c r="B99" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B100" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B101" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>889</v>
+      </c>
+      <c r="B102" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B103" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>892</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>893</v>
+      </c>
+      <c r="B105" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>895</v>
+      </c>
+      <c r="B106" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>896</v>
+      </c>
+      <c r="B107" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10027,148 +10055,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B7" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B8" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B10" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B11" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B14" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B15" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B17" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B18" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B21" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B22" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B23" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -10196,7 +10224,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10206,182 +10234,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="G4" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="963">
   <si>
     <t>type说明</t>
   </si>
@@ -2272,6 +2272,12 @@
     <t>报关单回执</t>
   </si>
   <si>
+    <t>ocr_container</t>
+  </si>
+  <si>
+    <t>集装箱</t>
+  </si>
+  <si>
     <t>核注</t>
   </si>
   <si>
@@ -2617,6 +2623,12 @@
     <t>核放</t>
   </si>
   <si>
+    <t>nrc_make_manage</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
     <t>nrc_pass_port_head</t>
   </si>
   <si>
@@ -2630,6 +2642,18 @@
   </si>
   <si>
     <t>核放单位回执</t>
+  </si>
+  <si>
+    <t>nrc_pass_port_acmp</t>
+  </si>
+  <si>
+    <t>核放清单关联单证信息</t>
+  </si>
+  <si>
+    <t>nrc_vehicle_head_type</t>
+  </si>
+  <si>
+    <t>车辆信息表头</t>
   </si>
   <si>
     <t xml:space="preserve"> /**
@@ -2923,10 +2947,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2984,15 +3008,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3006,7 +3070,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3019,15 +3098,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,10 +3123,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3057,49 +3138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3109,22 +3149,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3149,7 +3173,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,13 +3269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,37 +3293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,109 +3341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3394,8 +3418,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3411,6 +3474,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3433,58 +3507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3496,10 +3520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3508,133 +3532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9322,10 +9346,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9396,639 +9420,671 @@
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
         <v>750</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:2">
-      <c r="A9" t="s">
-        <v>752</v>
-      </c>
-      <c r="B9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>754</v>
-      </c>
-      <c r="B10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>756</v>
-      </c>
-      <c r="B11" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>758</v>
-      </c>
-      <c r="B12" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>760</v>
-      </c>
-      <c r="B13" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>762</v>
-      </c>
-      <c r="B15" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="B17" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:2">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="B18" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="B19" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>770</v>
+        <v>758</v>
+      </c>
+      <c r="B20" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>775</v>
-      </c>
-      <c r="B23" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="B24" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>779</v>
-      </c>
-      <c r="B25" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B26" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="B27" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="B28" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>787</v>
-      </c>
-      <c r="B29" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="B30" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="B31" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>779</v>
+      </c>
+      <c r="B33" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B34" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B35" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="B36" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B37" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>799</v>
+        <v>789</v>
+      </c>
+      <c r="B38" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B39" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B40" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B41" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>805</v>
-      </c>
-      <c r="B42" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>807</v>
-      </c>
-      <c r="B43" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>810</v>
-      </c>
-      <c r="B46" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>799</v>
+      </c>
+      <c r="B45" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>812</v>
-      </c>
-      <c r="B47" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B48" t="s">
-        <v>815</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B49" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B50" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>807</v>
+      </c>
+      <c r="B51" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>820</v>
+        <v>809</v>
+      </c>
+      <c r="B52" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B53" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>822</v>
-      </c>
-      <c r="B54" t="s">
-        <v>823</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="B55" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="B56" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="B57" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="B58" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="B59" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>834</v>
-      </c>
-      <c r="B60" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>836</v>
-      </c>
-      <c r="B61" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="B62" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="B63" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="B64" t="s">
-        <v>843</v>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>828</v>
+      </c>
+      <c r="B65" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="B66" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="B67" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>834</v>
+      </c>
+      <c r="B68" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>836</v>
+      </c>
+      <c r="B69" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>838</v>
+      </c>
+      <c r="B70" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>848</v>
+        <v>840</v>
+      </c>
+      <c r="B71" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B72" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B73" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>853</v>
-      </c>
-      <c r="B74" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B75" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B76" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>859</v>
-      </c>
-      <c r="B77" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>861</v>
-      </c>
-      <c r="B78" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="B81" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="B82" t="s">
-        <v>746</v>
+        <v>854</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>855</v>
+      </c>
+      <c r="B83" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>857</v>
+      </c>
+      <c r="B84" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>859</v>
+      </c>
+      <c r="B85" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>863</v>
+      </c>
+      <c r="B87" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>866</v>
+      </c>
+      <c r="B90" t="s">
         <v>867</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="88" ht="292" customHeight="1" spans="1:6">
-      <c r="A88" s="7" t="s">
+      <c r="B91" t="s">
         <v>869</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>870</v>
       </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>871</v>
+      <c r="B92" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>871</v>
+      </c>
+      <c r="B93" t="s">
         <v>872</v>
-      </c>
-      <c r="B93" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>873</v>
+      </c>
+      <c r="B94" t="s">
         <v>874</v>
-      </c>
-      <c r="B94" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>875</v>
+      </c>
+      <c r="B95" t="s">
         <v>876</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="98" ht="292" customHeight="1" spans="1:6">
+      <c r="A98" s="7" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B98" t="s">
         <v>878</v>
       </c>
-      <c r="B96" t="s">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>880</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B103" t="s">
         <v>881</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>882</v>
-      </c>
-      <c r="B98" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="B99" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>886</v>
-      </c>
-      <c r="B100" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>888</v>
-      </c>
-      <c r="B101" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>889</v>
-      </c>
-      <c r="B102" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="B103" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B104" t="s">
-        <v>629</v>
+        <v>883</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B105" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B106" t="s">
-        <v>632</v>
+        <v>887</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>888</v>
+      </c>
+      <c r="B107" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>890</v>
+      </c>
+      <c r="B108" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="B109" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>894</v>
+      </c>
+      <c r="B110" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>896</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B111" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>897</v>
+      </c>
+      <c r="B112" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B113" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>900</v>
+      </c>
+      <c r="B114" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>901</v>
+      </c>
+      <c r="B115" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>903</v>
+      </c>
+      <c r="B116" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>904</v>
+      </c>
+      <c r="B117" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10043,8 +10099,8 @@
   <sheetPr/>
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -10055,148 +10111,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="B6" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="B7" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="B8" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B10" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B11" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="B14" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="B15" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="B17" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B18" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B21" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="B22" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="B23" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -10224,7 +10280,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10234,182 +10290,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="G4" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="997">
   <si>
     <t>type说明</t>
   </si>
@@ -2278,6 +2278,18 @@
     <t>集装箱</t>
   </si>
   <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>fms</t>
+  </si>
+  <si>
+    <t>fms_fee_type</t>
+  </si>
+  <si>
+    <t>费用类型表</t>
+  </si>
+  <si>
     <t>核注</t>
   </si>
   <si>
@@ -2431,27 +2443,42 @@
     <t>客户管理</t>
   </si>
   <si>
-    <t>ocr_customer_info</t>
-  </si>
-  <si>
-    <t>ocr_its_customers</t>
+    <t>custom_customer_info</t>
+  </si>
+  <si>
+    <t>客户管理列表（基本信息）</t>
+  </si>
+  <si>
+    <t>custom_its_customers</t>
   </si>
   <si>
     <t>旗下客户</t>
   </si>
   <si>
+    <t>custom_its_products</t>
+  </si>
+  <si>
+    <t>旗下产品</t>
+  </si>
+  <si>
+    <t>invt_head_type_history</t>
+  </si>
+  <si>
+    <t>旗下账册表头（客户管理）</t>
+  </si>
+  <si>
+    <t>invt_list_type_history</t>
+  </si>
+  <si>
+    <t>旗下账册表体（客户管理）</t>
+  </si>
+  <si>
     <t>es_note_info_record</t>
   </si>
   <si>
     <t>公众管理数据</t>
   </si>
   <si>
-    <t>invt_list_type_history</t>
-  </si>
-  <si>
-    <t>旗下账册表体（客户管理）</t>
-  </si>
-  <si>
     <t>dim_product_all</t>
   </si>
   <si>
@@ -2461,6 +2488,12 @@
     <t>dim_exemption_nature</t>
   </si>
   <si>
+    <t>custom_user_company</t>
+  </si>
+  <si>
+    <t>用户企业关系表</t>
+  </si>
+  <si>
     <t>sys_customs_broker</t>
   </si>
   <si>
@@ -2654,6 +2687,75 @@
   </si>
   <si>
     <t>车辆信息表头</t>
+  </si>
+  <si>
+    <t>集中申报</t>
+  </si>
+  <si>
+    <t>bws_acmp_r_l_list</t>
+  </si>
+  <si>
+    <t>申报表随附单证关系表</t>
+  </si>
+  <si>
+    <t>保税</t>
+  </si>
+  <si>
+    <t>bws_app_goods_type</t>
+  </si>
+  <si>
+    <t>申报表表体</t>
+  </si>
+  <si>
+    <t>bws_app_head_type</t>
+  </si>
+  <si>
+    <t>申报表表头</t>
+  </si>
+  <si>
+    <t>bws_app_ucns_type</t>
+  </si>
+  <si>
+    <t>申报表单耗表体</t>
+  </si>
+  <si>
+    <t>bws_stock_goods_type</t>
+  </si>
+  <si>
+    <t>出入库表体</t>
+  </si>
+  <si>
+    <t>bws_stock_head_type</t>
+  </si>
+  <si>
+    <t>出入库表头</t>
+  </si>
+  <si>
+    <t>stock_make_manage</t>
+  </si>
+  <si>
+    <t>出入库制单列表</t>
+  </si>
+  <si>
+    <t>sas_acmp_r_l_list</t>
+  </si>
+  <si>
+    <t>海关特殊</t>
+  </si>
+  <si>
+    <t>sas_app_goods_type</t>
+  </si>
+  <si>
+    <t>sas_app_head_type</t>
+  </si>
+  <si>
+    <t>sas_app_ucns_type</t>
+  </si>
+  <si>
+    <t>sas_stock_goods_type</t>
+  </si>
+  <si>
+    <t>sas_stock_head_type</t>
   </si>
   <si>
     <t xml:space="preserve"> /**
@@ -2946,11 +3048,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3008,11 +3110,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3025,30 +3162,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3056,21 +3170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3085,22 +3185,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3131,15 +3232,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3173,67 +3275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3251,7 +3293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,25 +3365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,7 +3383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3305,49 +3437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3418,8 +3520,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3448,42 +3565,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3504,11 +3589,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3520,10 +3622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3532,16 +3634,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3553,13 +3655,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3568,101 +3667,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3682,6 +3784,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4198,87 +4303,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" ht="15.6" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" ht="15.6" spans="1:3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="15.6" spans="1:3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4287,7 +4392,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4296,7 +4401,7 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4305,7 +4410,7 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4314,46 +4419,46 @@
       <c r="C13" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4396,106 +4501,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="U1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="Y1" s="9" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="Y1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4509,13 +4614,13 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -4574,13 +4679,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -4639,13 +4744,13 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
@@ -4704,13 +4809,13 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -4769,13 +4874,13 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -5477,13 +5582,13 @@
       <c r="S19" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="W19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="Y19" t="s">
@@ -5533,13 +5638,13 @@
       <c r="S20" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="Y20" t="s">
@@ -5589,13 +5694,13 @@
       <c r="S21" t="s">
         <v>56</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="Y21" t="s">
@@ -5618,49 +5723,49 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="W22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Y22" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AA22" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5674,49 +5779,49 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Y23" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5730,40 +5835,40 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Y24" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="Z24" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AA24" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5777,40 +5882,40 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="Z25" s="11" t="s">
+      <c r="Z25" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AA25" s="11" t="s">
+      <c r="AA25" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5824,40 +5929,40 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Y26" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AA26" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6401,13 +6506,13 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6423,13 +6528,13 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6893,104 +6998,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="U1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="Y1" s="9" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="Y1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7004,13 +7109,13 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -7069,13 +7174,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -7134,13 +7239,13 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
@@ -7199,13 +7304,13 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -7264,13 +7369,13 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -8378,49 +8483,49 @@
       <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="W24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Y24" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="Z24" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AA24" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8443,49 +8548,49 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="U25" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="Z25" s="11" t="s">
+      <c r="Z25" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="AA25" s="11" t="s">
+      <c r="AA25" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8508,49 +8613,49 @@
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="U26" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Y26" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AA26" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8573,49 +8678,49 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="S27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="U27" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="W27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Y27" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AA27" s="11" t="s">
+      <c r="AA27" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8638,49 +8743,49 @@
       <c r="G28" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="U28" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="W28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Y28" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="Z28" s="11" t="s">
+      <c r="Z28" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AA28" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8714,13 +8819,13 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9078,18 +9183,18 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>557</v>
       </c>
       <c r="B63" t="s">
@@ -9346,10 +9451,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9428,667 +9533,836 @@
         <v>750</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>754</v>
+      </c>
+    </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:2">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B19" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B20" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B24" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B26" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B27" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B28" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B30" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B31" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B32" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B33" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B34" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B35" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B36" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B38" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B39" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B40" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B41" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B44" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B45" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B48" t="s">
-        <v>746</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B49" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:2">
       <c r="A51" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B51" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:2">
       <c r="A52" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B52" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>818</v>
+      </c>
+      <c r="B54" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="B55" t="s">
-        <v>813</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="B56" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>816</v>
-      </c>
-      <c r="B57" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B58" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B59" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>827</v>
+      </c>
+      <c r="B60" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>822</v>
+        <v>829</v>
+      </c>
+      <c r="B61" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="B62" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>824</v>
-      </c>
-      <c r="B63" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>826</v>
-      </c>
-      <c r="B64" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B65" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B66" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B67" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B68" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B69" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="B70" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B71" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B72" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B73" t="s">
-        <v>845</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>851</v>
+      </c>
+      <c r="B74" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="B75" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="B76" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>851</v>
-      </c>
-      <c r="B81" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>853</v>
-      </c>
-      <c r="B82" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>857</v>
+      </c>
+      <c r="B78" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>859</v>
+      </c>
+      <c r="B79" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>855</v>
-      </c>
-      <c r="B83" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B84" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="B85" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B86" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B87" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>870</v>
+      </c>
+      <c r="B88" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>865</v>
+        <v>872</v>
+      </c>
+      <c r="B89" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="B90" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>868</v>
-      </c>
-      <c r="B91" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>870</v>
-      </c>
-      <c r="B92" t="s">
-        <v>746</v>
+        <v>876</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="B93" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B94" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B95" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="98" ht="292" customHeight="1" spans="1:6">
-      <c r="A98" s="7" t="s">
-        <v>877</v>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>882</v>
+      </c>
+      <c r="B96" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>884</v>
+      </c>
+      <c r="B97" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>886</v>
       </c>
       <c r="B98" t="s">
-        <v>878</v>
-      </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="102" spans="1:1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>889</v>
+      </c>
+      <c r="B101" t="s">
+        <v>890</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>892</v>
+      </c>
+      <c r="B102" t="s">
+        <v>893</v>
+      </c>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="B103" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>895</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="B104" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>897</v>
+      </c>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="B105" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>899</v>
+      </c>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="B106" t="s">
-        <v>887</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="B107" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:3">
       <c r="A108" t="s">
+        <v>904</v>
+      </c>
+      <c r="B108" t="s">
         <v>890</v>
       </c>
-      <c r="B108" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>892</v>
+      <c r="C108" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:3">
+      <c r="A109" t="s">
+        <v>906</v>
       </c>
       <c r="B109" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" customFormat="1" spans="1:3">
       <c r="A110" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="B110" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" customFormat="1" spans="1:3">
       <c r="A111" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="B111" t="s">
+        <v>897</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:3">
+      <c r="A112" t="s">
+        <v>909</v>
+      </c>
+      <c r="B112" t="s">
+        <v>899</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" customFormat="1" spans="1:3">
+      <c r="A113" t="s">
+        <v>910</v>
+      </c>
+      <c r="B113" t="s">
+        <v>901</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="117" ht="292" customHeight="1" spans="1:6">
+      <c r="A117" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B117" t="s">
+        <v>912</v>
+      </c>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>914</v>
+      </c>
+      <c r="B122" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>916</v>
+      </c>
+      <c r="B123" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>918</v>
+      </c>
+      <c r="B124" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>920</v>
+      </c>
+      <c r="B125" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>922</v>
+      </c>
+      <c r="B126" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>924</v>
+      </c>
+      <c r="B127" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B128" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>928</v>
+      </c>
+      <c r="B129" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>930</v>
+      </c>
+      <c r="B130" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>897</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>931</v>
+      </c>
+      <c r="B131" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="B113" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>900</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="B132" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>934</v>
+      </c>
+      <c r="B133" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>901</v>
-      </c>
-      <c r="B115" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>903</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>935</v>
+      </c>
+      <c r="B134" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>937</v>
+      </c>
+      <c r="B135" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>904</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>938</v>
+      </c>
+      <c r="B136" t="s">
         <v>635</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C108:C113"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10111,148 +10385,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="B6" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="B7" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="B8" t="s">
-        <v>914</v>
+        <v>948</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>915</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="B10" t="s">
-        <v>917</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>921</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>922</v>
+        <v>956</v>
       </c>
       <c r="B14" t="s">
-        <v>923</v>
+        <v>957</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="B15" t="s">
-        <v>925</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>926</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="B17" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>929</v>
+        <v>963</v>
       </c>
       <c r="B18" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>932</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>929</v>
+        <v>963</v>
       </c>
       <c r="B21" t="s">
-        <v>933</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>934</v>
+        <v>968</v>
       </c>
       <c r="B22" t="s">
-        <v>935</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>936</v>
+        <v>970</v>
       </c>
       <c r="B23" t="s">
-        <v>937</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -10280,7 +10554,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10290,182 +10564,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>939</v>
+        <v>973</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>941</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>944</v>
+        <v>978</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>946</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>948</v>
+        <v>982</v>
       </c>
       <c r="G4" t="s">
-        <v>949</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>950</v>
+        <v>984</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>951</v>
+        <v>985</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>952</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>954</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>957</v>
+        <v>991</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>950</v>
+        <v>984</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>952</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>957</v>
+        <v>991</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>959</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>951</v>
+        <v>985</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>957</v>
+        <v>991</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="999">
   <si>
     <t>type说明</t>
   </si>
@@ -2522,6 +2522,12 @@
   </si>
   <si>
     <t>报文</t>
+  </si>
+  <si>
+    <t>sys_application</t>
+  </si>
+  <si>
+    <t>权限配置表</t>
   </si>
   <si>
     <t>x3</t>
@@ -3048,9 +3054,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -3118,22 +3124,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3147,7 +3138,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3161,8 +3159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3170,14 +3175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3192,16 +3190,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3217,25 +3207,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3247,10 +3228,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3275,7 +3281,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,79 +3419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,85 +3455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,15 +3523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3574,6 +3571,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3585,6 +3591,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3603,17 +3620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3622,10 +3628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3634,133 +3640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9453,8 +9459,8 @@
   <sheetPr/>
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108:C113"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9868,9 +9874,17 @@
         <v>832</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>833</v>
+      </c>
+      <c r="B63" t="s">
+        <v>834</v>
+      </c>
+    </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -9878,198 +9892,198 @@
         <v>827</v>
       </c>
       <c r="B65" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B66" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B67" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B68" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B69" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B70" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B71" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B72" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B73" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B74" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B75" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B76" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B78" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B79" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B84" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B85" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B86" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B87" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B88" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B89" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B90" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B93" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B94" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B95" t="s">
         <v>746</v>
@@ -10077,234 +10091,234 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B96" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B97" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B98" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B101" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B102" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C102" s="7"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B103" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B104" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B105" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B106" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B107" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:3">
       <c r="A108" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B108" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:3">
       <c r="A109" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B109" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C109" s="7"/>
     </row>
     <row r="110" customFormat="1" spans="1:3">
       <c r="A110" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B110" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C110" s="7"/>
     </row>
     <row r="111" customFormat="1" spans="1:3">
       <c r="A111" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B111" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C111" s="7"/>
     </row>
     <row r="112" customFormat="1" spans="1:3">
       <c r="A112" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B112" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C112" s="7"/>
     </row>
     <row r="113" customFormat="1" spans="1:3">
       <c r="A113" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B113" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C113" s="7"/>
     </row>
     <row r="117" ht="292" customHeight="1" spans="1:6">
       <c r="A117" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B117" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F117" s="8"/>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B122" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B123" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B124" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B125" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B126" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B127" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="9" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B128" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B129" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B130" t="s">
         <v>658</v>
@@ -10312,7 +10326,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B131" t="s">
         <v>654</v>
@@ -10320,15 +10334,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="9" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B132" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B133" t="s">
         <v>629</v>
@@ -10336,15 +10350,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B134" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B135" t="s">
         <v>632</v>
@@ -10352,7 +10366,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B136" t="s">
         <v>635</v>
@@ -10385,148 +10399,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B6" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B10" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B11" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B15" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B17" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B18" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B21" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B22" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B23" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -10554,7 +10568,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10564,182 +10578,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>981</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>979</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G4" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -3054,10 +3054,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -3130,8 +3130,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,28 +3148,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3175,7 +3162,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3189,48 +3192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3252,11 +3215,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3281,6 +3281,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3293,7 +3335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3305,19 +3347,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3329,19 +3389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,31 +3431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3395,67 +3455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,44 +3538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3595,13 +3562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3620,6 +3591,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3628,10 +3628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3640,112 +3640,100 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3754,19 +3742,31 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9457,10 +9457,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9661,721 +9661,721 @@
         <v>780</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>781</v>
-      </c>
-      <c r="B32" t="s">
-        <v>782</v>
-      </c>
-    </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B33" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B34" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B36" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B37" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B39" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B40" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>797</v>
+      </c>
+      <c r="B41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>799</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>801</v>
-      </c>
-      <c r="B44" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>801</v>
+      </c>
+      <c r="B45" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>803</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>806</v>
-      </c>
-      <c r="B48" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>808</v>
+      </c>
+      <c r="B50" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>810</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:2">
-      <c r="A51" t="s">
-        <v>812</v>
-      </c>
-      <c r="B51" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:2">
       <c r="A52" t="s">
+        <v>812</v>
+      </c>
+      <c r="B52" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:2">
+      <c r="A53" t="s">
         <v>814</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>816</v>
-      </c>
-      <c r="B53" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B54" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>821</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>822</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>823</v>
-      </c>
-      <c r="B58" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B59" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B61" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B62" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>831</v>
+      </c>
+      <c r="B63" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>833</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>827</v>
-      </c>
-      <c r="B65" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B66" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B67" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B68" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B69" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B70" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B71" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B72" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B73" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B74" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B75" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>855</v>
+      </c>
+      <c r="B76" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>857</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>858</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>859</v>
-      </c>
-      <c r="B78" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>859</v>
+      </c>
+      <c r="B79" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>861</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>864</v>
-      </c>
-      <c r="B84" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B85" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B86" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B87" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B88" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B89" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>874</v>
+      </c>
+      <c r="B90" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>876</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>879</v>
-      </c>
-      <c r="B93" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B94" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B95" t="s">
-        <v>746</v>
+        <v>882</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B96" t="s">
-        <v>885</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B97" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>886</v>
+      </c>
+      <c r="B98" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>888</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>891</v>
-      </c>
-      <c r="B101" t="s">
-        <v>892</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B102" t="s">
-        <v>895</v>
-      </c>
-      <c r="C102" s="7"/>
+        <v>892</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B103" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B104" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B105" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>900</v>
+      </c>
+      <c r="B106" t="s">
+        <v>901</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>902</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>903</v>
       </c>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>904</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:3">
-      <c r="A108" t="s">
-        <v>906</v>
-      </c>
-      <c r="B108" t="s">
-        <v>892</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:3">
       <c r="A109" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B109" t="s">
-        <v>895</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>892</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="110" customFormat="1" spans="1:3">
       <c r="A110" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B110" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C110" s="7"/>
     </row>
     <row r="111" customFormat="1" spans="1:3">
       <c r="A111" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B111" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C111" s="7"/>
     </row>
     <row r="112" customFormat="1" spans="1:3">
       <c r="A112" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B112" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C112" s="7"/>
     </row>
     <row r="113" customFormat="1" spans="1:3">
       <c r="A113" t="s">
+        <v>911</v>
+      </c>
+      <c r="B113" t="s">
+        <v>901</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:3">
+      <c r="A114" t="s">
         <v>912</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>903</v>
       </c>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="117" ht="292" customHeight="1" spans="1:6">
-      <c r="A117" s="8" t="s">
+      <c r="C114" s="7"/>
+    </row>
+    <row r="118" ht="292" customHeight="1" spans="1:6">
+      <c r="A118" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>914</v>
       </c>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>915</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>916</v>
-      </c>
-      <c r="B122" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B123" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B124" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B125" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B126" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>924</v>
+      </c>
+      <c r="B127" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>926</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="9" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>929</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>930</v>
-      </c>
-      <c r="B129" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B130" t="s">
-        <v>658</v>
+        <v>931</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>932</v>
+      </c>
+      <c r="B131" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>933</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="9" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>935</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>936</v>
-      </c>
-      <c r="B133" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B134" t="s">
-        <v>938</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B135" t="s">
-        <v>632</v>
+        <v>938</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>939</v>
+      </c>
+      <c r="B136" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>940</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>635</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C109:C114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/amisbook文档/json字段说明(1).xlsx
+++ b/amisbook文档/json字段说明(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1001">
   <si>
     <t>type说明</t>
   </si>
@@ -2657,6 +2657,12 @@
   </si>
   <si>
     <t>转关单模板</t>
+  </si>
+  <si>
+    <t>sas_invt_warehouse_type</t>
+  </si>
+  <si>
+    <t>集中申报出入库单关联表</t>
   </si>
   <si>
     <t>核放</t>
@@ -3054,10 +3060,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -3117,12 +3123,126 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3138,123 +3258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3281,7 +3287,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,37 +3413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3335,97 +3449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3437,25 +3461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3523,6 +3529,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3541,8 +3580,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3562,36 +3616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3599,24 +3623,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3628,10 +3634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3640,133 +3646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9459,8 +9465,8 @@
   <sheetPr/>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -10060,30 +10066,38 @@
         <v>877</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>878</v>
+      </c>
+      <c r="B92" t="s">
+        <v>879</v>
+      </c>
+    </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B94" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B95" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B96" t="s">
         <v>746</v>
@@ -10091,234 +10105,234 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B97" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B98" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B99" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B102" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B103" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B104" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B105" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B106" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B107" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C107" s="7"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B108" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:3">
       <c r="A109" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B109" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:3">
       <c r="A110" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B110" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C110" s="7"/>
     </row>
     <row r="111" customFormat="1" spans="1:3">
       <c r="A111" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B111" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C111" s="7"/>
     </row>
     <row r="112" customFormat="1" spans="1:3">
       <c r="A112" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B112" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C112" s="7"/>
     </row>
     <row r="113" customFormat="1" spans="1:3">
       <c r="A113" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B113" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C113" s="7"/>
     </row>
     <row r="114" customFormat="1" spans="1:3">
       <c r="A114" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B114" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C114" s="7"/>
     </row>
     <row r="118" ht="292" customHeight="1" spans="1:6">
       <c r="A118" s="8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B118" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F118" s="8"/>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B123" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B124" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B125" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B126" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B127" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B128" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="9" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B129" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B130" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B131" t="s">
         <v>658</v>
@@ -10326,7 +10340,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B132" t="s">
         <v>654</v>
@@ -10334,15 +10348,15 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="9" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B133" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B134" t="s">
         <v>629</v>
@@ -10350,15 +10364,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B135" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B136" t="s">
         <v>632</v>
@@ -10366,7 +10380,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B137" t="s">
         <v>635</v>
@@ -10399,148 +10413,148 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B6" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B8" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B10" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B11" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B14" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B15" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B17" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B18" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B21" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B22" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B23" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -10568,7 +10582,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10578,182 +10592,182 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>983</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>981</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G4" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
